--- a/biology/Botanique/Zea_mays/Zea_mays.xlsx
+++ b/biology/Botanique/Zea_mays/Zea_mays.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zea mays est une espèce de plantes monocotylédones, de la famille des Poacées (sous-famille des Panicoïdées). Elle comporte plusieurs sous-espèces, dont le maïs (Z. m. subsp. mays).
 </t>
@@ -511,14 +523,16 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Z. m. subsp. mays, le maïs. Cette sous-espèce cultivée n'est pas connue à l'état sauvage. Il en existe des milliers de variétés, dont :
 Z. m. subsp. mays var. indurata, le maïs corné ;
 Z. m. subsp. mays var. indentata, le maïs denté ;
 Z. m. subsp. mays var. amylacea, le maïs farineux ;
-Z. m. subsp. parviglumis, le principal ancêtre sauvage du maïs, originaire des basses terres du Mexique et domestiqué il y a environ 9 000 ans[1],[2].
-Z. m. subsp. mexicana, originaire des hautes terres du Mexique, qui s'est hybridée avec le maïs environ 4 000 ans après la première domestication et contribue à 15 à 25 % des gènes de toutes les variétés de maïs existantes[1],[2].
+Z. m. subsp. parviglumis, le principal ancêtre sauvage du maïs, originaire des basses terres du Mexique et domestiqué il y a environ 9 000 ans,.
+Z. m. subsp. mexicana, originaire des hautes terres du Mexique, qui s'est hybridée avec le maïs environ 4 000 ans après la première domestication et contribue à 15 à 25 % des gènes de toutes les variétés de maïs existantes,.
 Z. m. subsp. huehuetenangensis, endémique du Guatemala.</t>
         </is>
       </c>
